--- a/results/I3_N5_M2_T30_C100_DepCentral_s4_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s4_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1852.17166423509</v>
+        <v>1095.909092184804</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0150001049041748</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.22794279754354</v>
+        <v>11.34027634257576</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.679692936988799</v>
+        <v>5.269454431738615</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1570.030000000004</v>
+        <v>830</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>262.71</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>22.43528232449546</v>
       </c>
     </row>
     <row r="7">
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1021,7 +1021,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1035,7 +1035,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1063,7 +1063,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1091,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1105,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1119,37 +1119,9 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1252,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>103.9450000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1263,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>99.87500000000007</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1274,7 +1246,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>98.50500000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1285,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>97.73000000000008</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1296,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>89.70500000000007</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1307,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>240.35</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
@@ -1318,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>239.6200000000004</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
@@ -1329,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>250.9550000000004</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
@@ -1340,7 +1312,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>246.9800000000004</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
@@ -1351,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>230.1350000000004</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
@@ -1362,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>52.09500000000072</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1373,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>53.22500000000073</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -1384,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>52.15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1395,7 +1367,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>49.64500000000073</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -1406,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>48.49500000000073</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1417,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>111.565</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23">
@@ -1428,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>120.73</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24">
@@ -1439,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>111.165</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
@@ -1450,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>116.53</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26">
@@ -1461,7 +1433,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>116.985</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
@@ -1472,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>163.8399999999998</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -1483,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>163.6949999999998</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -1494,7 +1466,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>161.6799999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -1505,7 +1477,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>160.4149999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -1516,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>151.6049999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -1527,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>111.565</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
@@ -1538,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>120.73</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
@@ -1549,7 +1521,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>111.165</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -1560,7 +1532,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>116.53</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
@@ -1571,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>116.985</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
@@ -1582,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>240.35</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38">
@@ -1593,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>239.6200000000004</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39">
@@ -1604,7 +1576,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>250.9550000000004</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40">
@@ -1615,7 +1587,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>246.9800000000004</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41">
@@ -1626,7 +1598,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>230.1350000000004</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1673,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.565</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -1684,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>20.73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -1695,7 +1667,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>11.165</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -1706,7 +1678,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16.53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -1717,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>16.985</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -1728,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>140.35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1739,7 +1711,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>139.6200000000004</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -1750,7 +1722,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>150.9550000000004</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -1761,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>146.9800000000004</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -1772,7 +1744,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>130.1350000000004</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1830,7 +1802,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1841,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1852,7 +1824,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1863,7 +1835,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1874,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1885,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1896,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1907,7 +1879,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1918,7 +1890,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1929,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1940,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1951,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1962,7 +1934,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1973,7 +1945,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1984,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1995,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2006,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2017,7 +1989,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2028,7 +2000,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2039,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2050,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2061,7 +2033,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2072,7 +2044,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2083,7 +2055,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2097,7 +2069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2124,7 +2096,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2138,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2149,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2160,7 +2132,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2171,7 +2143,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2179,10 +2151,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2193,7 +2165,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2204,7 +2176,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2215,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2226,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2234,10 +2206,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2248,7 +2220,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2259,7 +2231,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2270,31 +2242,9 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
         <v>1</v>
       </c>
     </row>
